--- a/fama-french.xlsx
+++ b/fama-french.xlsx
@@ -1,15 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/frankzhu/Desktop/Metrics_GP/project-draft/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EE98A48-D21A-5144-8F07-1EDCFA50E776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="920" yWindow="500" windowWidth="29480" windowHeight="20040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -319,8 +336,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -383,6 +400,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -429,7 +454,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -461,9 +486,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -495,6 +538,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -670,14 +731,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -691,24 +754,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.02578705519886286</v>
+        <v>2.578705519886286E-2</v>
       </c>
       <c r="C2">
-        <v>0.3417201007507907</v>
+        <v>0.34172010075079068</v>
       </c>
       <c r="D2">
         <v>-0.2012180383505521</v>
       </c>
       <c r="E2">
-        <v>0.05061357085218442</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>5.0613570852184417E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -716,16 +779,16 @@
         <v>0.1023793350625854</v>
       </c>
       <c r="C3">
-        <v>0.5805337207232975</v>
+        <v>0.58053372072329745</v>
       </c>
       <c r="D3">
-        <v>-0.2202838996490107</v>
+        <v>-0.22028389964901071</v>
       </c>
       <c r="E3">
-        <v>0.07192646918133212</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>7.1926469181332123E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -733,67 +796,67 @@
         <v>0.2587698900166614</v>
       </c>
       <c r="C4">
-        <v>1.221287011843046</v>
+        <v>1.2212870118430461</v>
       </c>
       <c r="D4">
-        <v>-0.8410686470859327</v>
+        <v>-0.84106864708593265</v>
       </c>
       <c r="E4">
-        <v>-0.004384220343980907</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-4.3842203439809074E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B5">
-        <v>-0.07356729793920577</v>
+        <v>-7.3567297939205772E-2</v>
       </c>
       <c r="C5">
-        <v>0.4185675686821573</v>
+        <v>0.41856756868215728</v>
       </c>
       <c r="D5">
-        <v>-0.1706186118794872</v>
+        <v>-0.17061861187948721</v>
       </c>
       <c r="E5">
-        <v>0.02745718162221519</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>2.745718162221519E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B6">
-        <v>-0.04069825171100938</v>
+        <v>-4.0698251711009381E-2</v>
       </c>
       <c r="C6">
-        <v>-0.001379130192964415</v>
+        <v>-1.379130192964415E-3</v>
       </c>
       <c r="D6">
-        <v>0.03124209399980195</v>
+        <v>3.1242093999801952E-2</v>
       </c>
       <c r="E6">
-        <v>0.01426149632648771</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>1.426149632648771E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B7">
-        <v>0.08054408524292844</v>
+        <v>8.0544085242928443E-2</v>
       </c>
       <c r="C7">
-        <v>5.24323769802133</v>
+        <v>5.2432376980213302</v>
       </c>
       <c r="D7">
-        <v>2.391445398556401</v>
+        <v>2.3914453985564008</v>
       </c>
       <c r="E7">
-        <v>0.04410178041136104</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>4.4101780411361043E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -801,67 +864,67 @@
         <v>0.1949796531148266</v>
       </c>
       <c r="C8">
-        <v>0.7555378733649507</v>
+        <v>0.75553787336495071</v>
       </c>
       <c r="D8">
-        <v>-0.2348377571254837</v>
+        <v>-0.23483775712548369</v>
       </c>
       <c r="E8">
-        <v>0.03798288100661598</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>3.7982881006615982E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B9">
-        <v>0.3074205251925008</v>
+        <v>0.30742052519250079</v>
       </c>
       <c r="C9">
-        <v>1.450311277654796</v>
+        <v>1.4503112776547959</v>
       </c>
       <c r="D9">
-        <v>0.6638921275358198</v>
+        <v>0.66389212753581983</v>
       </c>
       <c r="E9">
-        <v>0.01189176764875891</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>1.189176764875891E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B10">
-        <v>-0.0113765320458267</v>
+        <v>-1.13765320458267E-2</v>
       </c>
       <c r="C10">
         <v>0.2618997568825574</v>
       </c>
       <c r="D10">
-        <v>-0.01062734281874938</v>
+        <v>-1.062734281874938E-2</v>
       </c>
       <c r="E10">
-        <v>0.008778118429976372</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>8.7781184299763719E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B11">
-        <v>0.1812527538405028</v>
+        <v>0.18125275384050279</v>
       </c>
       <c r="C11">
-        <v>0.3237024352116786</v>
+        <v>0.32370243521167857</v>
       </c>
       <c r="D11">
-        <v>-0.3040530569192746</v>
+        <v>-0.30405305691927459</v>
       </c>
       <c r="E11">
-        <v>0.02076358398479942</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>2.0763583984799421E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -869,152 +932,152 @@
         <v>0.1148882991532212</v>
       </c>
       <c r="C12">
-        <v>1.801868941998857</v>
+        <v>1.8018689419988569</v>
       </c>
       <c r="D12">
-        <v>-0.3916078344875226</v>
+        <v>-0.39160783448752262</v>
       </c>
       <c r="E12">
-        <v>0.05655502257996503</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>5.6555022579965031E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B13">
-        <v>-0.1247616148399718</v>
+        <v>-0.12476161483997179</v>
       </c>
       <c r="C13">
         <v>0.1221188321012527</v>
       </c>
       <c r="D13">
-        <v>-0.04641661451190951</v>
+        <v>-4.641661451190951E-2</v>
       </c>
       <c r="E13">
-        <v>0.03259623861995869</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>3.2596238619958688E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B14">
-        <v>0.02745476411181951</v>
+        <v>2.7454764111819512E-2</v>
       </c>
       <c r="C14">
-        <v>5.315130248875307</v>
+        <v>5.3151302488753069</v>
       </c>
       <c r="D14">
         <v>-3.537279471613906</v>
       </c>
       <c r="E14">
-        <v>0.03551091816726592</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>3.5510918167265919E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B15">
-        <v>0.07917345614990115</v>
+        <v>7.917345614990115E-2</v>
       </c>
       <c r="C15">
-        <v>1.674358831748538</v>
+        <v>1.6743588317485381</v>
       </c>
       <c r="D15">
-        <v>-0.2608340896491193</v>
+        <v>-0.26083408964911931</v>
       </c>
       <c r="E15">
-        <v>-0.006239517754048168</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>-6.2395177540481676E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B16">
-        <v>0.09839782764319763</v>
+        <v>9.8397827643197627E-2</v>
       </c>
       <c r="C16">
-        <v>0.1232191609337508</v>
+        <v>0.12321916093375079</v>
       </c>
       <c r="D16">
-        <v>-0.01465715117928771</v>
+        <v>-1.465715117928771E-2</v>
       </c>
       <c r="E16">
-        <v>0.01706337289923856</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>1.7063372899238559E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B17">
-        <v>-0.1982546262413444</v>
+        <v>-0.19825462624134441</v>
       </c>
       <c r="C17">
-        <v>0.1311355873216178</v>
+        <v>0.13113558732161781</v>
       </c>
       <c r="D17">
-        <v>-0.003712803022545966</v>
+        <v>-3.7128030225459662E-3</v>
       </c>
       <c r="E17">
-        <v>0.06424767616265913</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>6.4247676162659126E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B18">
-        <v>-0.1134858986496664</v>
+        <v>-0.11348589864966641</v>
       </c>
       <c r="C18">
         <v>0.3108776378282464</v>
       </c>
       <c r="D18">
-        <v>-0.03001887691223422</v>
+        <v>-3.0018876912234219E-2</v>
       </c>
       <c r="E18">
-        <v>-0.00293109054634721</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>-2.93109054634721E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B19">
-        <v>-0.06303946311679459</v>
+        <v>-6.3039463116794592E-2</v>
       </c>
       <c r="C19">
-        <v>0.07910069175513618</v>
+        <v>7.9100691755136177E-2</v>
       </c>
       <c r="D19">
-        <v>-0.06778534958004329</v>
+        <v>-6.7785349580043286E-2</v>
       </c>
       <c r="E19">
-        <v>0.009006874021317553</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>9.0068740213175534E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B20">
-        <v>-0.06106869266870683</v>
+        <v>-6.1068692668706827E-2</v>
       </c>
       <c r="C20">
-        <v>0.08041604677286333</v>
+        <v>8.0416046772863334E-2</v>
       </c>
       <c r="D20">
-        <v>-0.00143144393445812</v>
+        <v>-1.4314439344581199E-3</v>
       </c>
       <c r="E20">
-        <v>0.02537407415441078</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>2.5374074154410779E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
@@ -1022,16 +1085,16 @@
         <v>0.1221621717207035</v>
       </c>
       <c r="C21">
-        <v>0.09689329227061634</v>
+        <v>9.6893292270616299E-2</v>
       </c>
       <c r="D21">
-        <v>-0.06442841161413804</v>
+        <v>-6.4428411614138037E-2</v>
       </c>
       <c r="E21">
-        <v>0.03738279879038829</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>3.7382798790388291E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
@@ -1039,33 +1102,33 @@
         <v>0.1888719563903028</v>
       </c>
       <c r="C22">
-        <v>-0.0324365756401867</v>
+        <v>-3.2436575640186698E-2</v>
       </c>
       <c r="D22">
-        <v>-0.04073995635866808</v>
+        <v>-4.0739956358668082E-2</v>
       </c>
       <c r="E22">
-        <v>-0.004321148127547449</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>-4.3211481275474486E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B23">
-        <v>0.1351089010258731</v>
+        <v>0.13510890102587311</v>
       </c>
       <c r="C23">
-        <v>-0.1323827855712897</v>
+        <v>-0.13238278557128971</v>
       </c>
       <c r="D23">
-        <v>0.03056336238733804</v>
+        <v>3.056336238733804E-2</v>
       </c>
       <c r="E23">
-        <v>-0.03965700183197046</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>-3.9657001831970462E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
@@ -1073,33 +1136,33 @@
         <v>0.1070695374777319</v>
       </c>
       <c r="C24">
-        <v>0.0480965844613623</v>
+        <v>4.80965844613623E-2</v>
       </c>
       <c r="D24">
-        <v>0.01645028286900937</v>
+        <v>1.6450282869009372E-2</v>
       </c>
       <c r="E24">
-        <v>0.01399308140261295</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>1.3993081402612949E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B25">
-        <v>-0.07923348765843938</v>
+        <v>-7.9233487658439378E-2</v>
       </c>
       <c r="C25">
-        <v>0.06449208385923642</v>
+        <v>6.4492083859236424E-2</v>
       </c>
       <c r="D25">
-        <v>-0.02385569566419826</v>
+        <v>-2.3855695664198259E-2</v>
       </c>
       <c r="E25">
-        <v>-0.01466470994899147</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-1.466470994899147E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
@@ -1107,118 +1170,118 @@
         <v>0.1178038343322514</v>
       </c>
       <c r="C26">
-        <v>0.0700796478071766</v>
+        <v>7.0079647807176598E-2</v>
       </c>
       <c r="D26">
-        <v>-0.03840355071974631</v>
+        <v>-3.8403550719746313E-2</v>
       </c>
       <c r="E26">
-        <v>0.0155819467042829</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>1.55819467042829E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B27">
-        <v>-0.01790710337014837</v>
+        <v>-1.7907103370148371E-2</v>
       </c>
       <c r="C27">
-        <v>0.03704419466149222</v>
+        <v>3.7044194661492218E-2</v>
       </c>
       <c r="D27">
-        <v>0.008844918863481419</v>
+        <v>8.8449188634814185E-3</v>
       </c>
       <c r="E27">
-        <v>0.009266355436891111</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>9.2663554368911105E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B28">
-        <v>0.2791699732871004</v>
+        <v>0.27916997328710041</v>
       </c>
       <c r="C28">
-        <v>0.3348612166952117</v>
+        <v>0.33486121669521168</v>
       </c>
       <c r="D28">
-        <v>-0.03010428702512041</v>
+        <v>-3.010428702512041E-2</v>
       </c>
       <c r="E28">
-        <v>0.02650926128611238</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>2.650926128611238E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B29">
-        <v>-0.2652429335847409</v>
+        <v>-0.26524293358474088</v>
       </c>
       <c r="C29">
-        <v>0.004885427694518389</v>
+        <v>4.8854276945183893E-3</v>
       </c>
       <c r="D29">
-        <v>0.03889651985381503</v>
+        <v>3.889651985381503E-2</v>
       </c>
       <c r="E29">
-        <v>0.0207802351135558</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>2.0780235113555801E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B30">
-        <v>-0.04046530651878084</v>
+        <v>-4.0465306518780837E-2</v>
       </c>
       <c r="C30">
         <v>0.4677593826652568</v>
       </c>
       <c r="D30">
-        <v>0.01379039004096856</v>
+        <v>1.379039004096856E-2</v>
       </c>
       <c r="E30">
-        <v>-0.0055888641634129</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-5.5888641634129002E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B31">
-        <v>0.002283116498500135</v>
+        <v>2.2831164985001348E-3</v>
       </c>
       <c r="C31">
-        <v>0.2220453327801764</v>
+        <v>0.22204533278017641</v>
       </c>
       <c r="D31">
-        <v>0.05163665569737297</v>
+        <v>5.1636655697372968E-2</v>
       </c>
       <c r="E31">
-        <v>0.01877755831380446</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>1.8777558313804461E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B32">
-        <v>-0.1392284295532694</v>
+        <v>-0.13922842955326939</v>
       </c>
       <c r="C32">
         <v>0.3729427621262601</v>
       </c>
       <c r="D32">
-        <v>-0.04764985086778833</v>
+        <v>-4.7649850867788328E-2</v>
       </c>
       <c r="E32">
-        <v>-0.0210331412672424</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-2.10331412672424E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>35</v>
       </c>
@@ -1226,33 +1289,33 @@
         <v>-0.7269613193551453</v>
       </c>
       <c r="C33">
-        <v>0.3686682949434676</v>
+        <v>0.36866829494346759</v>
       </c>
       <c r="D33">
-        <v>0.2001413078863581</v>
+        <v>0.20014130788635809</v>
       </c>
       <c r="E33">
-        <v>0.1149208104292676</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.11492081042926761</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B34">
-        <v>-0.1868748056273229</v>
+        <v>-0.18687480562732289</v>
       </c>
       <c r="C34">
-        <v>0.2763145789216784</v>
+        <v>0.27631457892167838</v>
       </c>
       <c r="D34">
-        <v>-0.01095199912667452</v>
+        <v>-1.095199912667452E-2</v>
       </c>
       <c r="E34">
-        <v>0.01358515983912728</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>1.3585159839127279E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>37</v>
       </c>
@@ -1260,135 +1323,135 @@
         <v>-0.1855513967911977</v>
       </c>
       <c r="C35">
-        <v>-0.04413927502441355</v>
+        <v>-4.4139275024413553E-2</v>
       </c>
       <c r="D35">
-        <v>0.0248514220483281</v>
+        <v>2.48514220483281E-2</v>
       </c>
       <c r="E35">
-        <v>-0.007607874053577802</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>-7.6078740535778016E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B36">
-        <v>0.07332065136052847</v>
+        <v>7.3320651360528469E-2</v>
       </c>
       <c r="C36">
-        <v>0.779184119081536</v>
+        <v>0.77918411908153595</v>
       </c>
       <c r="D36">
-        <v>-0.07790199267743939</v>
+        <v>-7.7901992677439386E-2</v>
       </c>
       <c r="E36">
-        <v>0.003598517134031299</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>3.5985171340312989E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B37">
-        <v>0.02710443320965221</v>
+        <v>2.7104433209652209E-2</v>
       </c>
       <c r="C37">
         <v>0.1133133657730318</v>
       </c>
       <c r="D37">
-        <v>0.009481519413908991</v>
+        <v>9.4815194139089912E-3</v>
       </c>
       <c r="E37">
-        <v>0.02965295983202539</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+        <v>2.9652959832025389E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B38">
-        <v>-0.02901653967312617</v>
+        <v>-2.901653967312617E-2</v>
       </c>
       <c r="C38">
         <v>0.1106690170190742</v>
       </c>
       <c r="D38">
-        <v>-0.01208142470890086</v>
+        <v>-1.208142470890086E-2</v>
       </c>
       <c r="E38">
-        <v>0.02226816666907284</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>2.2268166669072841E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B39">
-        <v>0.08551625152802877</v>
+        <v>8.5516251528028775E-2</v>
       </c>
       <c r="C39">
-        <v>0.07891561739490541</v>
+        <v>7.8915617394905407E-2</v>
       </c>
       <c r="D39">
-        <v>-0.04888855514700045</v>
+        <v>-4.8888555147000447E-2</v>
       </c>
       <c r="E39">
-        <v>0.009050048781233921</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>9.0500487812339211E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B40">
-        <v>-0.3612233171371426</v>
+        <v>-0.36122331713714262</v>
       </c>
       <c r="C40">
-        <v>0.285872934943433</v>
+        <v>0.28587293494343302</v>
       </c>
       <c r="D40">
-        <v>0.001494333989322916</v>
+        <v>1.4943339893229159E-3</v>
       </c>
       <c r="E40">
-        <v>0.002258197548653196</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>2.2581975486531962E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B41">
-        <v>0.02692947632112711</v>
+        <v>2.6929476321127108E-2</v>
       </c>
       <c r="C41">
-        <v>0.05358437618284086</v>
+        <v>5.3584376182840857E-2</v>
       </c>
       <c r="D41">
-        <v>-0.02301164932886397</v>
+        <v>-2.3011649328863969E-2</v>
       </c>
       <c r="E41">
-        <v>0.03960667516558134</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>3.9606675165581341E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B42">
-        <v>-0.08489423765006794</v>
+        <v>-8.4894237650067941E-2</v>
       </c>
       <c r="C42">
-        <v>0.1363202286585996</v>
+        <v>0.13632022865859961</v>
       </c>
       <c r="D42">
-        <v>-0.01019001104746017</v>
+        <v>-1.019001104746017E-2</v>
       </c>
       <c r="E42">
-        <v>0.02194015403660807</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>2.1940154036608071E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>45</v>
       </c>
@@ -1396,16 +1459,16 @@
         <v>-0.2334091791968356</v>
       </c>
       <c r="C43">
-        <v>0.5637808124915081</v>
+        <v>0.56378081249150813</v>
       </c>
       <c r="D43">
-        <v>0.05770146727797049</v>
+        <v>5.7701467277970493E-2</v>
       </c>
       <c r="E43">
-        <v>0.0177977684325886</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>1.7797768432588599E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>46</v>
       </c>
@@ -1413,16 +1476,16 @@
         <v>0.1079555818657343</v>
       </c>
       <c r="C44">
-        <v>0.06102309218352568</v>
+        <v>6.1023092183525682E-2</v>
       </c>
       <c r="D44">
-        <v>-0.02995464465669884</v>
+        <v>-2.995464465669884E-2</v>
       </c>
       <c r="E44">
-        <v>0.01469102273215151</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>1.4691022732151509E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>47</v>
       </c>
@@ -1430,832 +1493,832 @@
         <v>-0.1720290403092937</v>
       </c>
       <c r="C45">
-        <v>0.04199793897835687</v>
+        <v>4.1997938978356873E-2</v>
       </c>
       <c r="D45">
-        <v>0.04143033169118797</v>
+        <v>4.1430331691187969E-2</v>
       </c>
       <c r="E45">
-        <v>0.004340997223069101</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
+        <v>4.3409972230691006E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B46">
-        <v>0.02317769362513651</v>
+        <v>2.3177693625136511E-2</v>
       </c>
       <c r="C46">
-        <v>0.05957444890601275</v>
+        <v>5.9574448906012753E-2</v>
       </c>
       <c r="D46">
-        <v>-0.0003758449218395979</v>
+        <v>-3.7584492183959789E-4</v>
       </c>
       <c r="E46">
-        <v>0.0114408438869651</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>1.1440843886965099E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B47">
-        <v>-0.05421170823512578</v>
+        <v>-5.4211708235125777E-2</v>
       </c>
       <c r="C47">
-        <v>-0.001182020560511823</v>
+        <v>-1.1820205605118229E-3</v>
       </c>
       <c r="D47">
-        <v>0.007135251084487718</v>
+        <v>7.1352510844877176E-3</v>
       </c>
       <c r="E47">
-        <v>0.01190404960855687</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>1.190404960855687E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B48">
-        <v>-0.1930894212913438</v>
+        <v>-0.19308942129134379</v>
       </c>
       <c r="C48">
-        <v>0.07341240839391261</v>
+        <v>7.3412408393912609E-2</v>
       </c>
       <c r="D48">
-        <v>-0.02291391106940549</v>
+        <v>-2.291391106940549E-2</v>
       </c>
       <c r="E48">
-        <v>0.02520596099540773</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>2.5205960995407731E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B49">
-        <v>0.05644130185417021</v>
+        <v>5.6441301854170213E-2</v>
       </c>
       <c r="C49">
-        <v>0.3508763920107272</v>
+        <v>0.35087639201072718</v>
       </c>
       <c r="D49">
-        <v>0.006381784010848802</v>
+        <v>6.3817840108488016E-3</v>
       </c>
       <c r="E49">
-        <v>0.02324551842537846</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>2.3245518425378461E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B50">
-        <v>0.0135345711646105</v>
+        <v>1.3534571164610499E-2</v>
       </c>
       <c r="C50">
-        <v>0.01273741328600167</v>
+        <v>1.273741328600167E-2</v>
       </c>
       <c r="D50">
-        <v>-0.05115761069616842</v>
+        <v>-5.1157610696168421E-2</v>
       </c>
       <c r="E50">
-        <v>0.02266745648157034</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>2.2667456481570342E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B51">
-        <v>0.1365292601027825</v>
+        <v>0.13652926010278249</v>
       </c>
       <c r="C51">
-        <v>0.04477117354458687</v>
+        <v>4.4771173544586873E-2</v>
       </c>
       <c r="D51">
-        <v>0.02119924583121292</v>
+        <v>2.119924583121292E-2</v>
       </c>
       <c r="E51">
-        <v>0.04957103814669138</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>4.9571038146691379E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B52">
-        <v>-0.03637533696898972</v>
+        <v>-3.6375336968989723E-2</v>
       </c>
       <c r="C52">
-        <v>0.06031092639035944</v>
+        <v>6.031092639035944E-2</v>
       </c>
       <c r="D52">
-        <v>0.02388464582631605</v>
+        <v>2.388464582631605E-2</v>
       </c>
       <c r="E52">
-        <v>-0.002671159969737432</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+        <v>-2.6711599697374321E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B53">
-        <v>0.006229672541188096</v>
+        <v>6.2296725411880964E-3</v>
       </c>
       <c r="C53">
         <v>0.1046134100936334</v>
       </c>
       <c r="D53">
-        <v>-0.02402266408698991</v>
+        <v>-2.4022664086989911E-2</v>
       </c>
       <c r="E53">
-        <v>0.01804913645644967</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>1.804913645644967E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B54">
-        <v>-0.02870558721204868</v>
+        <v>-2.8705587212048678E-2</v>
       </c>
       <c r="C54">
-        <v>0.05866147291976327</v>
+        <v>5.8661472919763272E-2</v>
       </c>
       <c r="D54">
-        <v>-0.01305959400249248</v>
+        <v>-1.3059594002492479E-2</v>
       </c>
       <c r="E54">
-        <v>0.03453712579899776</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>3.4537125798997759E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B55">
-        <v>-0.043656133406485</v>
+        <v>-4.3656133406484998E-2</v>
       </c>
       <c r="C55">
-        <v>0.0730837151826422</v>
+        <v>7.30837151826422E-2</v>
       </c>
       <c r="D55">
-        <v>0.001791994806898477</v>
+        <v>1.7919948068984769E-3</v>
       </c>
       <c r="E55">
-        <v>0.01382238706515901</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>1.382238706515901E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B56">
-        <v>0.04745427875083962</v>
+        <v>4.7454278750839622E-2</v>
       </c>
       <c r="C56">
-        <v>0.04352854020234838</v>
+        <v>4.3528540202348379E-2</v>
       </c>
       <c r="D56">
-        <v>-0.002271493879020683</v>
+        <v>-2.2714938790206829E-3</v>
       </c>
       <c r="E56">
-        <v>-0.00261629656089013</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-2.6162965608901301E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B57">
-        <v>-0.05258689831813933</v>
+        <v>-5.2586898318139327E-2</v>
       </c>
       <c r="C57">
-        <v>0.05349185841380929</v>
+        <v>5.3491858413809289E-2</v>
       </c>
       <c r="D57">
-        <v>-0.02548901873574894</v>
+        <v>-2.548901873574894E-2</v>
       </c>
       <c r="E57">
-        <v>0.003936616486320455</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>3.9366164863204548E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B58">
-        <v>0.08456577812792437</v>
+        <v>8.4565778127924374E-2</v>
       </c>
       <c r="C58">
-        <v>0.07337968955867094</v>
+        <v>7.3379689558670941E-2</v>
       </c>
       <c r="D58">
-        <v>0.00906252438912359</v>
+        <v>9.0625243891235899E-3</v>
       </c>
       <c r="E58">
-        <v>0.01888620613982307</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>1.8886206139823069E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B59">
-        <v>0.1553794358763337</v>
+        <v>0.15537943587633371</v>
       </c>
       <c r="C59">
-        <v>0.04897220320598686</v>
+        <v>4.8972203205986858E-2</v>
       </c>
       <c r="D59">
-        <v>0.01178307324089641</v>
+        <v>1.178307324089641E-2</v>
       </c>
       <c r="E59">
-        <v>0.02545908130688353</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>2.545908130688353E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B60">
-        <v>-0.06168561896693998</v>
+        <v>-6.1685618966939977E-2</v>
       </c>
       <c r="C60">
-        <v>0.2289872748491956</v>
+        <v>0.22898727484919559</v>
       </c>
       <c r="D60">
-        <v>0.006003714381125468</v>
+        <v>6.0037143811254683E-3</v>
       </c>
       <c r="E60">
-        <v>0.00419676152992877</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>4.1967615299287704E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B61">
-        <v>0.009596544955869792</v>
+        <v>9.5965449558697916E-3</v>
       </c>
       <c r="C61">
-        <v>0.05796588508382101</v>
+        <v>5.7965885083821007E-2</v>
       </c>
       <c r="D61">
-        <v>-0.003494228415348079</v>
+        <v>-3.4942284153480791E-3</v>
       </c>
       <c r="E61">
-        <v>0.008862937400938128</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>8.8629374009381277E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B62">
-        <v>-0.008650914035760762</v>
+        <v>-8.6509140357607615E-3</v>
       </c>
       <c r="C62">
-        <v>0.07498140183157198</v>
+        <v>7.4981401831571981E-2</v>
       </c>
       <c r="D62">
-        <v>-0.01361384503639762</v>
+        <v>-1.361384503639762E-2</v>
       </c>
       <c r="E62">
-        <v>0.01092014172730539</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>1.0920141727305391E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B63">
-        <v>0.06710717987140048</v>
+        <v>6.7107179871400482E-2</v>
       </c>
       <c r="C63">
-        <v>0.01912035603669884</v>
+        <v>1.912035603669884E-2</v>
       </c>
       <c r="D63">
-        <v>-0.01030825534663412</v>
+        <v>-1.030825534663412E-2</v>
       </c>
       <c r="E63">
-        <v>0.005310806239191772</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>5.3108062391917718E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B64">
-        <v>-0.09979238194543098</v>
+        <v>-9.9792381945430983E-2</v>
       </c>
       <c r="C64">
-        <v>0.05977485596378786</v>
+        <v>5.9774855963787857E-2</v>
       </c>
       <c r="D64">
-        <v>0.03032799681575467</v>
+        <v>3.0327996815754672E-2</v>
       </c>
       <c r="E64">
-        <v>0.01044601538934149</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>1.0446015389341491E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B65">
-        <v>-0.007257038521616343</v>
+        <v>-7.2570385216163434E-3</v>
       </c>
       <c r="C65">
-        <v>0.06708603443769669</v>
+        <v>6.7086034437696687E-2</v>
       </c>
       <c r="D65">
-        <v>-0.01578899339869518</v>
+        <v>-1.5788993398695179E-2</v>
       </c>
       <c r="E65">
-        <v>0.02320558891044044</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>2.3205588910440441E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B66">
-        <v>0.02314982803114178</v>
+        <v>2.3149828031141781E-2</v>
       </c>
       <c r="C66">
-        <v>0.05757698813632133</v>
+        <v>5.7576988136321332E-2</v>
       </c>
       <c r="D66">
-        <v>-0.0007768392858185785</v>
+        <v>-7.7683928581857853E-4</v>
       </c>
       <c r="E66">
-        <v>-0.008595489454165075</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-8.5954894541650749E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B67">
-        <v>-0.03768793288670014</v>
+        <v>-3.7687932886700137E-2</v>
       </c>
       <c r="C67">
-        <v>0.04343323986461507</v>
+        <v>4.3433239864615072E-2</v>
       </c>
       <c r="D67">
-        <v>0.005553863353542347</v>
+        <v>5.5538633535423473E-3</v>
       </c>
       <c r="E67">
-        <v>0.03325676625373639</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>3.3256766253736393E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B68">
-        <v>-0.0619514353765731</v>
+        <v>-6.1951435376573098E-2</v>
       </c>
       <c r="C68">
-        <v>0.07660323548606873</v>
+        <v>7.6603235486068733E-2</v>
       </c>
       <c r="D68">
-        <v>-0.02401566378016323</v>
+        <v>-2.4015663780163229E-2</v>
       </c>
       <c r="E68">
-        <v>0.01451648176072602</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>1.451648176072602E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B69">
-        <v>0.006838050317780687</v>
+        <v>6.8380503177806872E-3</v>
       </c>
       <c r="C69">
-        <v>0.02947555622325555</v>
+        <v>2.9475556223255549E-2</v>
       </c>
       <c r="D69">
-        <v>0.01536257875931409</v>
+        <v>1.5362578759314091E-2</v>
       </c>
       <c r="E69">
-        <v>-0.002194097761158559</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-2.1940977611585588E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B70">
-        <v>-0.03503897837128114</v>
+        <v>-3.5038978371281143E-2</v>
       </c>
       <c r="C70">
-        <v>0.03671970823540563</v>
+        <v>3.6719708235405629E-2</v>
       </c>
       <c r="D70">
-        <v>0.01846261830190687</v>
+        <v>1.8462618301906871E-2</v>
       </c>
       <c r="E70">
-        <v>0.009703830405590932</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+        <v>9.7038304055909325E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B71">
-        <v>-0.03780607249204516</v>
+        <v>-3.7806072492045158E-2</v>
       </c>
       <c r="C71">
-        <v>-0.01767292898659533</v>
+        <v>-1.7672928986595331E-2</v>
       </c>
       <c r="D71">
-        <v>0.01725867258370721</v>
+        <v>1.725867258370721E-2</v>
       </c>
       <c r="E71">
-        <v>0.002210863927687463</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>2.2108639276874629E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B72">
-        <v>0.01507296181966365</v>
+        <v>1.507296181966365E-2</v>
       </c>
       <c r="C72">
-        <v>0.06752898277438082</v>
+        <v>6.7528982774380825E-2</v>
       </c>
       <c r="D72">
-        <v>-0.06591016135592634</v>
+        <v>-6.5910161355926339E-2</v>
       </c>
       <c r="E72">
-        <v>0.04112578599633605</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>4.1125785996336053E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B73">
-        <v>0.2095366505833459</v>
+        <v>0.20953665058334589</v>
       </c>
       <c r="C73">
         <v>0.141980695399575</v>
       </c>
       <c r="D73">
-        <v>-0.06888021023064435</v>
+        <v>-6.8880210230644348E-2</v>
       </c>
       <c r="E73">
-        <v>0.005464316761895807</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>5.4643167618958072E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B74">
-        <v>0.09490523445390725</v>
+        <v>9.490523445390725E-2</v>
       </c>
       <c r="C74">
-        <v>0.03705956192049051</v>
+        <v>3.7059561920490508E-2</v>
       </c>
       <c r="D74">
-        <v>-0.07290671553673619</v>
+        <v>-7.2906715536736194E-2</v>
       </c>
       <c r="E74">
-        <v>0.04879521577797324</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>4.8795215777973237E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B75">
-        <v>0.0301429073021467</v>
+        <v>3.01429073021467E-2</v>
       </c>
       <c r="C75">
-        <v>0.07374405478197812</v>
+        <v>7.3744054781978124E-2</v>
       </c>
       <c r="D75">
-        <v>-0.0276111397388569</v>
+        <v>-2.7611139738856899E-2</v>
       </c>
       <c r="E75">
-        <v>0.007504486565374465</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>7.5044865653744646E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B76">
-        <v>0.08094244145301258</v>
+        <v>8.0942441453012576E-2</v>
       </c>
       <c r="C76">
         <v>0.1054664353573676</v>
       </c>
       <c r="D76">
-        <v>-0.04279091469829609</v>
+        <v>-4.2790914698296087E-2</v>
       </c>
       <c r="E76">
-        <v>0.00360599626478731</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>3.6059962647873099E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B77">
-        <v>-0.02174405337559393</v>
+        <v>-2.174405337559393E-2</v>
       </c>
       <c r="C77">
-        <v>0.05811249737103859</v>
+        <v>5.8112497371038588E-2</v>
       </c>
       <c r="D77">
-        <v>0.003771534561580456</v>
+        <v>3.7715345615804562E-3</v>
       </c>
       <c r="E77">
-        <v>0.01128363949438192</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>1.1283639494381921E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B78">
-        <v>-0.2700872395809633</v>
+        <v>-0.27008723958096331</v>
       </c>
       <c r="C78">
         <v>0.1121823258732119</v>
       </c>
       <c r="D78">
-        <v>-0.0905719106201202</v>
+        <v>-9.0571910620120197E-2</v>
       </c>
       <c r="E78">
-        <v>0.02487448921860262</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>2.4874489218602618E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B79">
-        <v>0.007153323791024176</v>
+        <v>7.1533237910241763E-3</v>
       </c>
       <c r="C79">
         <v>0.1105448050562083</v>
       </c>
       <c r="D79">
-        <v>-0.008504589490069634</v>
+        <v>-8.5045894900696341E-3</v>
       </c>
       <c r="E79">
-        <v>0.01782338901093626</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>1.7823389010936261E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B80">
-        <v>0.01059540252776079</v>
+        <v>1.059540252776079E-2</v>
       </c>
       <c r="C80">
-        <v>0.03689021210730914</v>
+        <v>3.6890212107309139E-2</v>
       </c>
       <c r="D80">
-        <v>-0.01448726697803276</v>
+        <v>-1.4487266978032759E-2</v>
       </c>
       <c r="E80">
-        <v>0.0005159166593411285</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>5.1591665934112851E-4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B81">
-        <v>0.01854616983150596</v>
+        <v>1.8546169831505959E-2</v>
       </c>
       <c r="C81">
-        <v>0.3027797707474186</v>
+        <v>0.30277977074741858</v>
       </c>
       <c r="D81">
-        <v>-0.1706490927190706</v>
+        <v>-0.17064909271907061</v>
       </c>
       <c r="E81">
-        <v>0.008953520978914303</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>8.9535209789143033E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B82">
-        <v>-0.1731364065442371</v>
+        <v>-0.17313640654423709</v>
       </c>
       <c r="C82">
-        <v>0.04045906801992734</v>
+        <v>4.0459068019927338E-2</v>
       </c>
       <c r="D82">
-        <v>-0.01125881537320372</v>
+        <v>-1.125881537320372E-2</v>
       </c>
       <c r="E82">
-        <v>0.02205841534023689</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>2.2058415340236889E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B83">
-        <v>-0.1692764602062513</v>
+        <v>-0.16927646020625131</v>
       </c>
       <c r="C83">
-        <v>0.04312250461410341</v>
+        <v>4.3122504614103413E-2</v>
       </c>
       <c r="D83">
-        <v>-0.07342614419908805</v>
+        <v>-7.342614419908805E-2</v>
       </c>
       <c r="E83">
-        <v>0.01966923088523745</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>1.9669230885237449E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B84">
-        <v>0.07882689639950603</v>
+        <v>7.8826896399506033E-2</v>
       </c>
       <c r="C84">
-        <v>0.3017195395839337</v>
+        <v>0.30171953958393372</v>
       </c>
       <c r="D84">
-        <v>-0.1487050462278973</v>
+        <v>-0.14870504622789729</v>
       </c>
       <c r="E84">
-        <v>0.03096112843996494</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>3.096112843996494E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B85">
-        <v>0.04626698659502024</v>
+        <v>4.6266986595020237E-2</v>
       </c>
       <c r="C85">
-        <v>0.1497367163070845</v>
+        <v>0.14973671630708449</v>
       </c>
       <c r="D85">
-        <v>-0.03368400936621509</v>
+        <v>-3.3684009366215087E-2</v>
       </c>
       <c r="E85">
-        <v>-0.006412716201716212</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-6.412716201716212E-3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B86">
-        <v>0.04265448790721981</v>
+        <v>4.2654487907219811E-2</v>
       </c>
       <c r="C86">
-        <v>0.06208173973452712</v>
+        <v>6.2081739734527117E-2</v>
       </c>
       <c r="D86">
-        <v>-0.01343331587117346</v>
+        <v>-1.3433315871173459E-2</v>
       </c>
       <c r="E86">
-        <v>0.01396275632291915</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>1.396275632291915E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B87">
-        <v>-0.1512072453677895</v>
+        <v>-0.15120724536778951</v>
       </c>
       <c r="C87">
-        <v>0.02475153147425461</v>
+        <v>2.4751531474254612E-2</v>
       </c>
       <c r="D87">
-        <v>-0.04646828176785753</v>
+        <v>-4.6468281767857528E-2</v>
       </c>
       <c r="E87">
-        <v>0.04176035746662089</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>4.1760357466620893E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B88">
-        <v>0.03604392274071373</v>
+        <v>3.6043922740713732E-2</v>
       </c>
       <c r="C88">
         <v>0.1028350900156874</v>
       </c>
       <c r="D88">
-        <v>-0.03957469013153143</v>
+        <v>-3.9574690131531427E-2</v>
       </c>
       <c r="E88">
-        <v>0.004702821777183147</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>4.7028217771831471E-3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B89">
-        <v>-0.003275650681376266</v>
+        <v>-3.2756506813762659E-3</v>
       </c>
       <c r="C89">
-        <v>0.08407727347093512</v>
+        <v>8.4077273470935118E-2</v>
       </c>
       <c r="D89">
-        <v>0.001921137895468841</v>
+        <v>1.9211378954688411E-3</v>
       </c>
       <c r="E89">
-        <v>0.04462768545292289</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>4.4627685452922887E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B90">
-        <v>0.07578210764643456</v>
+        <v>7.578210764643456E-2</v>
       </c>
       <c r="C90">
         <v>0.2939167481929158</v>
       </c>
       <c r="D90">
-        <v>-0.1673759706887047</v>
+        <v>-0.16737597068870469</v>
       </c>
       <c r="E90">
-        <v>0.001390587452114735</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>1.390587452114735E-3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B91">
-        <v>0.05871715719249174</v>
+        <v>5.8717157192491737E-2</v>
       </c>
       <c r="C91">
-        <v>0.09162084727245812</v>
+        <v>9.1620847272458117E-2</v>
       </c>
       <c r="D91">
-        <v>-0.004673110276425163</v>
+        <v>-4.6731102764251634E-3</v>
       </c>
       <c r="E91">
-        <v>0.02275556154541189</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>2.275556154541189E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B92">
-        <v>0.04096557450952531</v>
+        <v>4.0965574509525308E-2</v>
       </c>
       <c r="C92">
-        <v>0.03101441243949308</v>
+        <v>3.1014412439493079E-2</v>
       </c>
       <c r="D92">
-        <v>-0.03056094268370715</v>
+        <v>-3.0560942683707151E-2</v>
       </c>
       <c r="E92">
-        <v>-0.003607599384086689</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-3.6075993840866891E-3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B93">
-        <v>-0.04066598113152806</v>
+        <v>-4.0665981131528063E-2</v>
       </c>
       <c r="C93">
         <v>0.1055639991115891</v>
       </c>
       <c r="D93">
-        <v>-0.02274022405162326</v>
+        <v>-2.2740224051623261E-2</v>
       </c>
       <c r="E93">
-        <v>0.00734797459126539</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>7.3479745912653901E-3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>96</v>
       </c>
@@ -2263,64 +2326,64 @@
         <v>0.1804912616549863</v>
       </c>
       <c r="C94">
-        <v>0.08023434743228897</v>
+        <v>8.0234347432288966E-2</v>
       </c>
       <c r="D94">
-        <v>-0.009244541670023011</v>
+        <v>-9.2445416700230112E-3</v>
       </c>
       <c r="E94">
-        <v>0.01271732249165809</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>1.2717322491658091E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B95">
-        <v>-0.3448804081797447</v>
+        <v>-0.34488040817974469</v>
       </c>
       <c r="C95">
-        <v>-0.01672043199215256</v>
+        <v>-1.6720431992152559E-2</v>
       </c>
       <c r="D95">
-        <v>0.03247042722878721</v>
+        <v>3.2470427228787208E-2</v>
       </c>
       <c r="E95">
-        <v>-0.01573333740920723</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-1.5733337409207231E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B96">
-        <v>0.02592565388638107</v>
+        <v>2.5925653886381069E-2</v>
       </c>
       <c r="C96">
         <v>0.1216235131725545</v>
       </c>
       <c r="D96">
-        <v>-0.0122496389269553</v>
+        <v>-1.2249638926955299E-2</v>
       </c>
       <c r="E96">
-        <v>0.006406416028989592</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
+        <v>6.4064160289895918E-3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B97">
-        <v>-0.06990534478602253</v>
+        <v>-6.9905344786022533E-2</v>
       </c>
       <c r="C97">
-        <v>0.08886940408396111</v>
+        <v>8.8869404083961115E-2</v>
       </c>
       <c r="D97">
-        <v>-0.0007540008849054279</v>
+        <v>-7.5400088490542791E-4</v>
       </c>
       <c r="E97">
-        <v>0.02288542364161201</v>
+        <v>2.2885423641612009E-2</v>
       </c>
     </row>
   </sheetData>
